--- a/database/PRJ-005/primary/screening_results.xlsx
+++ b/database/PRJ-005/primary/screening_results.xlsx
@@ -1,37 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CEP-CER-Web-App-Laptop\CEP-CER-Backend\database\PRJ-005\primary\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F9ED2D-FDFA-4F06-91FF-F184DEBFF62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+  <si>
+    <t>PMID</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Decision</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>ExcludedCriteria</t>
+  </si>
+  <si>
+    <t>Rationale</t>
+  </si>
+  <si>
+    <t>OBJECTIVE: Investigate the effect of aluminum oxide air abrasion, used for cleaning the surface of human dentin, on the bond strength to resin cements for indirect restorations.
+DATA AND SOURCE: This study followed PRISMA-ScR guidelines for scoping reviews and registered on the Open Science Framework platform.
+STUDY SELECTION: A comprehensive search of four electronic databases: PubMed, Scopus, Embase, and Web of Science, as well as manual searches, was performed to identify relevant studies published through July 2024. Studies focused on in vitro evaluations of oxide particles as a surface cleaning method for sound human dentin and their effect on the bond strength of resin cements for indirect restorations were included. Studies involving glass ionomer cements and temporary cements were excluded.
+RESULTS: A total of seven (7) studies were included in the descriptive analysis and meta-analysis. The overall meta-analysis of air abrasion with aluminum oxide particles (50 µm) showed a statistically significant difference (SMD: 0.94, 95 % CI, 0.43-1.46), favoring the air abrasion group. Additionally, when comparing pumice with air abrasion using aluminum oxide particles, a significant difference was found (SMD: 0.94, 95 % CI, 0.43-1.46), favoring the air abrasion group. The meta-analysis evaluating substrates with immediate dentin sealing (IDS) and air abrasion with alumina particles showed a significant difference in favor of the control group (IDS only - no cleaning method) (SMD: SMD: 0.62, 95 % CI, 1.10-0.15).
+CONCLUSION: Dentin cleaning with 50 µm aluminum oxide particles significantly improves the bond strength to resin cement. In addition, air abrasion provides higher resin cement bond strength than pumice and water cleaning. However, on substrates treated previously with immediate dentin sealing, air abrasion reduced the resin cement bond strength compared to the no cleaning method.
+CLINICAL SIGNIFICANCE: Air abrasion with 50 µm aluminum oxide particles may improve the bond strength of resin cements to sound dentin, supporting its use before cementing indirect restorations. However, when used after immediate dentin sealing, this technique may impair bond strength and should be avoided in such cases.</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>HTTPConnectionPool(host='localhost', port=7860): Max retries exceeded with url: /api/v1/run/primaryscreen-1-1-1 (Caused by NewConnectionError("HTTPConnection(host='localhost', port=7860): Failed to establish a new connection: [WinError 10061] No connection could be made because the target machine actively refused it"))</t>
+  </si>
+  <si>
+    <t>AIM: The study evaluated enamel surface roughness after bracket debonding and adhesive removal using three methods: Tungsten carbide burs (TCB), aluminum oxide air abrasion (AO), and sodium bicarbonate air abrasion (SB).
+MATERIALS AND METHODS: A total of 90 extracted premolars were divided equally into three groups based on adhesive removal methods: TCB, AO, and SB. Procedures were performed under a 4× magnifying loupe. Surface roughness (Ra) was measured using a profilometer and atomic force microscopy (AFM) before bonding (T0). Brackets were bonded, debonded after 24 hours, and the adhesive remnant index (ARI) was assessed. After adhesive removal, Ra was re-evaluated (T1), and removal time was recorded. Data were analyzed using IBM Statistical Package for Social Sciences software.
+RESULTS: The results showed no significant difference in ARI among the three groups. All methods led to a significant increase in Ra after adhesive removal (
+CONCLUSION: Sodium bicarbonate air abrasion effectively removes adhesive remnants and produces the lowest surface roughness compared with other methods. Air abrasion offers a promising alternative to rotary handpieces, restoring the enamel surface to a nearly original condition and reducing the risk of permanent tooth damage.
+CLINICAL SIGNIFICANCE: Sodium bicarbonate air abrasion is a fast, minimally invasive method for adhesive remnant removal. It preserves enamel integrity. How to cite this article: Alkahlout AE, El-Gazzar RI, Shamaa MS. Effect of Air Abrasion Techniques vs Tungsten Carbide Burs on Enamel Surface after Orthodontic Adhesive Remnant Removal. J Contemp Dent Pract 2025;26(4):366-372.</t>
+  </si>
+  <si>
+    <t>OBJECTIVE: The purpose of this in vitro study was to investigate the shear bond strength of high translucent monolithic zirconia and titanium alloy (Ti6Al4V) after various surface treatments using resin cement.
+MATERIALS AND METHODS: Ninety Ti6Al4V specimens were randomly allocated into six groups (n = 15 per group): untreated titanium (CT; control), 50-µm alumina airborne-particle abrasion (AB), 9.5% hydrofluoric acid (HF), anodization (AN), AB followed by AN (AB-AN), and HF followed by AN (HF-AN). Representative specimen from each group was examined using a scanning electron microscope and laser confocal microscopy. The specimens were bonded with 50-µm alumina air-abraded high translucent monolithic zirconia specimen using 10-methacryloyloxydecal dihydrogen phosphate (10-MDP)-containing primer and 10-methoxyl methyl methacrylate (MMA)-based resin cement. The failure mode of was classified using a stereomicroscope. Results were analyzed by one-way ANOVA with Tukey's adjustment for multiple comparisons (p &lt; 0.05).
+RESULTS: The mean bond strength of AB (36.9 ± 1.6 MPa) and HF (32.5 ± 3.4 MPa) groups were statistically significantly higher than other groups (p &lt; 0.05). The AN group showed the lowest bond strength (29.55 ± 3.62 MPa); however, there was no significant difference between CT, AN, AB-AN, and HF-AN. The stereomicroscopic analysis revealed that the AN, AB-AN, and HF-AN groups predominantly showed mixed failure modes.
+CONCLUSION: The surface treatment of Ti6Al4V with either 50-µm alumina airborne-particle abrasion or 9.5% hydrofluoric acid improved the bond strength between Ti6Al4V and high translucent monolithic zirconia. Anodization did not improve the bond strength, regardless of the surface treatments.</t>
+  </si>
+  <si>
+    <t>This study evaluated the repair bond strengths of ceramic and hybrid ceramic CAD/CAM restorations following bioactive-glass, silica-coated alumina, and aluminum oxide surface treatments. Shear bond strength (SBS) tests, surface roughness, and scanning electron microscopic (SEM) evaluations were performed on 180 specimens (7×12×2 mm</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +105,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,181 +429,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>PMID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Abstract</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Decision</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ExcludedCriteria</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Rationale</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>40617523</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>OBJECTIVE: Investigate the effect of aluminum oxide air abrasion, used for cleaning the surface of human dentin, on the bond strength to resin cements for indirect restorations.
-DATA AND SOURCE: This study followed PRISMA-ScR guidelines for scoping reviews and registered on the Open Science Framework platform.
-STUDY SELECTION: A comprehensive search of four electronic databases: PubMed, Scopus, Embase, and Web of Science, as well as manual searches, was performed to identify relevant studies published through July 2024. Studies focused on in vitro evaluations of oxide particles as a surface cleaning method for sound human dentin and their effect on the bond strength of resin cements for indirect restorations were included. Studies involving glass ionomer cements and temporary cements were excluded.
-RESULTS: A total of seven (7) studies were included in the descriptive analysis and meta-analysis. The overall meta-analysis of air abrasion with aluminum oxide particles (50 µm) showed a statistically significant difference (SMD: 0.94, 95 % CI, 0.43-1.46), favoring the air abrasion group. Additionally, when comparing pumice with air abrasion using aluminum oxide particles, a significant difference was found (SMD: 0.94, 95 % CI, 0.43-1.46), favoring the air abrasion group. The meta-analysis evaluating substrates with immediate dentin sealing (IDS) and air abrasion with alumina particles showed a significant difference in favor of the control group (IDS only - no cleaning method) (SMD: SMD: 0.62, 95 % CI, 1.10-0.15).
-CONCLUSION: Dentin cleaning with 50 µm aluminum oxide particles significantly improves the bond strength to resin cement. In addition, air abrasion provides higher resin cement bond strength than pumice and water cleaning. However, on substrates treated previously with immediate dentin sealing, air abrasion reduced the resin cement bond strength compared to the no cleaning method.
-CLINICAL SIGNIFICANCE: Air abrasion with 50 µm aluminum oxide particles may improve the bond strength of resin cements to sound dentin, supporting its use before cementing indirect restorations. However, when used after immediate dentin sealing, this technique may impair bond strength and should be avoided in such cases.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>INCLUDE</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>DUE</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>The abstract describes a prospective, multicenter clinical trial evaluating the safety and effectiveness of the PERIMOUNT Magna Ease Aortic Heart Valve (Model 3300TFX), which is the specific device under evaluation. The study involves the device's intended use for aortic valve replacement in human subjects. It provides relevant clinical safety and performance data, including mortality rates, valve-related adverse events, and hemodynamic performance.</t>
-        </is>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>40583425</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>AIM: The study evaluated enamel surface roughness after bracket debonding and adhesive removal using three methods: Tungsten carbide burs (TCB), aluminum oxide air abrasion (AO), and sodium bicarbonate air abrasion (SB).
-MATERIALS AND METHODS: A total of 90 extracted premolars were divided equally into three groups based on adhesive removal methods: TCB, AO, and SB. Procedures were performed under a 4× magnifying loupe. Surface roughness (Ra) was measured using a profilometer and atomic force microscopy (AFM) before bonding (T0). Brackets were bonded, debonded after 24 hours, and the adhesive remnant index (ARI) was assessed. After adhesive removal, Ra was re-evaluated (T1), and removal time was recorded. Data were analyzed using IBM Statistical Package for Social Sciences software.
-RESULTS: The results showed no significant difference in ARI among the three groups. All methods led to a significant increase in Ra after adhesive removal (
-CONCLUSION: Sodium bicarbonate air abrasion effectively removes adhesive remnants and produces the lowest surface roughness compared with other methods. Air abrasion offers a promising alternative to rotary handpieces, restoring the enamel surface to a nearly original condition and reducing the risk of permanent tooth damage.
-CLINICAL SIGNIFICANCE: Sodium bicarbonate air abrasion is a fast, minimally invasive method for adhesive remnant removal. It preserves enamel integrity. How to cite this article: Alkahlout AE, El-Gazzar RI, Shamaa MS. Effect of Air Abrasion Techniques vs Tungsten Carbide Burs on Enamel Surface after Orthodontic Adhesive Remnant Removal. J Contemp Dent Pract 2025;26(4):366-372.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>EXCLUDE</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Literature contains insufficient information to undertake a scientific analysis about device performance.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>The abstract content is missing. Without the abstract, it is impossible to assess the study type, scientific validity, or relevance to the device. Therefore, there is insufficient information to perform a scientific analysis.</t>
-        </is>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>40426153</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>OBJECTIVE: The purpose of this in vitro study was to investigate the shear bond strength of high translucent monolithic zirconia and titanium alloy (Ti6Al4V) after various surface treatments using resin cement.
-MATERIALS AND METHODS: Ninety Ti6Al4V specimens were randomly allocated into six groups (n = 15 per group): untreated titanium (CT; control), 50-µm alumina airborne-particle abrasion (AB), 9.5% hydrofluoric acid (HF), anodization (AN), AB followed by AN (AB-AN), and HF followed by AN (HF-AN). Representative specimen from each group was examined using a scanning electron microscope and laser confocal microscopy. The specimens were bonded with 50-µm alumina air-abraded high translucent monolithic zirconia specimen using 10-methacryloyloxydecal dihydrogen phosphate (10-MDP)-containing primer and 10-methoxyl methyl methacrylate (MMA)-based resin cement. The failure mode of was classified using a stereomicroscope. Results were analyzed by one-way ANOVA with Tukey's adjustment for multiple comparisons (p &lt; 0.05).
-RESULTS: The mean bond strength of AB (36.9 ± 1.6 MPa) and HF (32.5 ± 3.4 MPa) groups were statistically significantly higher than other groups (p &lt; 0.05). The AN group showed the lowest bond strength (29.55 ± 3.62 MPa); however, there was no significant difference between CT, AN, AB-AN, and HF-AN. The stereomicroscopic analysis revealed that the AN, AB-AN, and HF-AN groups predominantly showed mixed failure modes.
-CONCLUSION: The surface treatment of Ti6Al4V with either 50-µm alumina airborne-particle abrasion or 9.5% hydrofluoric acid improved the bond strength between Ti6Al4V and high translucent monolithic zirconia. Anodization did not improve the bond strength, regardless of the surface treatments.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>INCLUDE</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>DUE</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>The abstract and IFU are empty. Based on the abstract completeness rule, the article is included as a proper evaluation cannot be made from the provided text. Insufficient information is available to determine the study type, device relevance, or publication validity.</t>
-        </is>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>40358426</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>This study evaluated the repair bond strengths of ceramic and hybrid ceramic CAD/CAM restorations following bioactive-glass, silica-coated alumina, and aluminum oxide surface treatments. Shear bond strength (SBS) tests, surface roughness, and scanning electron microscopic (SEM) evaluations were performed on 180 specimens (7×12×2 mm</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>EXCLUDE</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Literature contains insufficient information to undertake a scientific analysis about device performance.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>The abstract and IFU summary were not provided in the prompt. Without the necessary content, it is impossible to perform the requested analysis of the abstract against the IFU. The submission lacks the required information to make a scientific or relevance-based assessment.</t>
-        </is>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/database/PRJ-005/primary/screening_results.xlsx
+++ b/database/PRJ-005/primary/screening_results.xlsx
@@ -1,96 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CEP-CER-Web-App-Laptop\CEP-CER-Backend\database\PRJ-005\primary\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F9ED2D-FDFA-4F06-91FF-F184DEBFF62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
-  <si>
-    <t>PMID</t>
-  </si>
-  <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>Decision</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>ExcludedCriteria</t>
-  </si>
-  <si>
-    <t>Rationale</t>
-  </si>
-  <si>
-    <t>OBJECTIVE: Investigate the effect of aluminum oxide air abrasion, used for cleaning the surface of human dentin, on the bond strength to resin cements for indirect restorations.
-DATA AND SOURCE: This study followed PRISMA-ScR guidelines for scoping reviews and registered on the Open Science Framework platform.
-STUDY SELECTION: A comprehensive search of four electronic databases: PubMed, Scopus, Embase, and Web of Science, as well as manual searches, was performed to identify relevant studies published through July 2024. Studies focused on in vitro evaluations of oxide particles as a surface cleaning method for sound human dentin and their effect on the bond strength of resin cements for indirect restorations were included. Studies involving glass ionomer cements and temporary cements were excluded.
-RESULTS: A total of seven (7) studies were included in the descriptive analysis and meta-analysis. The overall meta-analysis of air abrasion with aluminum oxide particles (50 µm) showed a statistically significant difference (SMD: 0.94, 95 % CI, 0.43-1.46), favoring the air abrasion group. Additionally, when comparing pumice with air abrasion using aluminum oxide particles, a significant difference was found (SMD: 0.94, 95 % CI, 0.43-1.46), favoring the air abrasion group. The meta-analysis evaluating substrates with immediate dentin sealing (IDS) and air abrasion with alumina particles showed a significant difference in favor of the control group (IDS only - no cleaning method) (SMD: SMD: 0.62, 95 % CI, 1.10-0.15).
-CONCLUSION: Dentin cleaning with 50 µm aluminum oxide particles significantly improves the bond strength to resin cement. In addition, air abrasion provides higher resin cement bond strength than pumice and water cleaning. However, on substrates treated previously with immediate dentin sealing, air abrasion reduced the resin cement bond strength compared to the no cleaning method.
-CLINICAL SIGNIFICANCE: Air abrasion with 50 µm aluminum oxide particles may improve the bond strength of resin cements to sound dentin, supporting its use before cementing indirect restorations. However, when used after immediate dentin sealing, this technique may impair bond strength and should be avoided in such cases.</t>
-  </si>
-  <si>
-    <t>ERROR</t>
-  </si>
-  <si>
-    <t>HTTPConnectionPool(host='localhost', port=7860): Max retries exceeded with url: /api/v1/run/primaryscreen-1-1-1 (Caused by NewConnectionError("HTTPConnection(host='localhost', port=7860): Failed to establish a new connection: [WinError 10061] No connection could be made because the target machine actively refused it"))</t>
-  </si>
-  <si>
-    <t>AIM: The study evaluated enamel surface roughness after bracket debonding and adhesive removal using three methods: Tungsten carbide burs (TCB), aluminum oxide air abrasion (AO), and sodium bicarbonate air abrasion (SB).
-MATERIALS AND METHODS: A total of 90 extracted premolars were divided equally into three groups based on adhesive removal methods: TCB, AO, and SB. Procedures were performed under a 4× magnifying loupe. Surface roughness (Ra) was measured using a profilometer and atomic force microscopy (AFM) before bonding (T0). Brackets were bonded, debonded after 24 hours, and the adhesive remnant index (ARI) was assessed. After adhesive removal, Ra was re-evaluated (T1), and removal time was recorded. Data were analyzed using IBM Statistical Package for Social Sciences software.
-RESULTS: The results showed no significant difference in ARI among the three groups. All methods led to a significant increase in Ra after adhesive removal (
-CONCLUSION: Sodium bicarbonate air abrasion effectively removes adhesive remnants and produces the lowest surface roughness compared with other methods. Air abrasion offers a promising alternative to rotary handpieces, restoring the enamel surface to a nearly original condition and reducing the risk of permanent tooth damage.
-CLINICAL SIGNIFICANCE: Sodium bicarbonate air abrasion is a fast, minimally invasive method for adhesive remnant removal. It preserves enamel integrity. How to cite this article: Alkahlout AE, El-Gazzar RI, Shamaa MS. Effect of Air Abrasion Techniques vs Tungsten Carbide Burs on Enamel Surface after Orthodontic Adhesive Remnant Removal. J Contemp Dent Pract 2025;26(4):366-372.</t>
-  </si>
-  <si>
-    <t>OBJECTIVE: The purpose of this in vitro study was to investigate the shear bond strength of high translucent monolithic zirconia and titanium alloy (Ti6Al4V) after various surface treatments using resin cement.
-MATERIALS AND METHODS: Ninety Ti6Al4V specimens were randomly allocated into six groups (n = 15 per group): untreated titanium (CT; control), 50-µm alumina airborne-particle abrasion (AB), 9.5% hydrofluoric acid (HF), anodization (AN), AB followed by AN (AB-AN), and HF followed by AN (HF-AN). Representative specimen from each group was examined using a scanning electron microscope and laser confocal microscopy. The specimens were bonded with 50-µm alumina air-abraded high translucent monolithic zirconia specimen using 10-methacryloyloxydecal dihydrogen phosphate (10-MDP)-containing primer and 10-methoxyl methyl methacrylate (MMA)-based resin cement. The failure mode of was classified using a stereomicroscope. Results were analyzed by one-way ANOVA with Tukey's adjustment for multiple comparisons (p &lt; 0.05).
-RESULTS: The mean bond strength of AB (36.9 ± 1.6 MPa) and HF (32.5 ± 3.4 MPa) groups were statistically significantly higher than other groups (p &lt; 0.05). The AN group showed the lowest bond strength (29.55 ± 3.62 MPa); however, there was no significant difference between CT, AN, AB-AN, and HF-AN. The stereomicroscopic analysis revealed that the AN, AB-AN, and HF-AN groups predominantly showed mixed failure modes.
-CONCLUSION: The surface treatment of Ti6Al4V with either 50-µm alumina airborne-particle abrasion or 9.5% hydrofluoric acid improved the bond strength between Ti6Al4V and high translucent monolithic zirconia. Anodization did not improve the bond strength, regardless of the surface treatments.</t>
-  </si>
-  <si>
-    <t>This study evaluated the repair bond strengths of ceramic and hybrid ceramic CAD/CAM restorations following bioactive-glass, silica-coated alumina, and aluminum oxide surface treatments. Shear bond strength (SBS) tests, surface roughness, and scanning electron microscopic (SEM) evaluations were performed on 180 specimens (7×12×2 mm</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -105,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -429,89 +420,208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PMID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Abstract</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Decision</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ExcludedCriteria</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>40617523</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>40829686</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Newly developed neurological complications are not confined to patients admitted to the neurology ICU but also occur in the medical ICU. In addition to patients with traumatic brain injuries, critically ill patients with sepsis, encephalopathy, and post-cardiopulmonary resuscitation are at risk of developing neurological complications. The situation can worsen when patients are sedated and intubated, which prevents the clinical manifestations to be presented. In this regard, non-convulsive seizures and status epilepticus, new onset strokes, and neuromuscular weakness syndromes could be missed which escalates the prognosis. The advancement of neuromonitoring technology enables real-time, multimodal assessments of brain functions, improving the ability of clinicians to detect and preemptively address potential neurological complications. In this study, we reviewed which certain neurological and medical conditions pose a high risk for developing secondary or new-onset neurological complications. Additionally, we reviewed various approaches that can assist in detecting these complications, including automated pupillometry, Bispectral Index monitoring, electroencephalogram, somatosensory evoked potentials monitoring, jugular venous oxygen saturation monitoring, PbO2 monitoring, near-infrared spectroscopy, transcranial Doppler sonography, thermal diffusion flowmetry, cerebral perfusion pressure monitoring, and biomarkers associated with neuronal damage. Last but not least, we reviewed the potential of integrating artificial intelligence in the ICU.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Request error: HTTPConnectionPool(host='localhost', port=7860): Max retries exceeded with url: /api/v1/run/primaryscreen-1-1-1 (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x00000219B83B2660&gt;: Failed to establish a new connection: [WinError 10061] No connection could be made because the target machine actively refused it'))</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>40583425</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>40769410</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Goal conflict is central to anxiety processing, but certain forms of goal conflict, such as avoid-avoid, remain under-investigated in EEG research. This study adapted the Joystick Operated Runway Task (JORT) for use with EEG to explore neural biomarkers of goal conflict related to the Behavioural Inhibition System (BIS), a key component of Reinforcement Sensitivity Theory (RST). A novel Trial Calibration System (TCS) was implemented to control motor activity and equate task difficulty across participants during high and low conflict conditions. Forty right-handed participants (aged 18-24) completed the EEG-adapted JORT, where conflict was manipulated by varying the speed of aversive stimuli. Behavioural data confirmed effective goal conflict induction: high conflict trials produced slower reaction times, more joystick movements, and a performance accuracy near 52 %, indicating a balanced conflict. EEG analyses using Current Source Density (CSD) transformations revealed increased right-frontal theta power and coherence during high conflict trials, consistent with BIS engagement. Left-frontal alpha power and coherence were more prominent during low conflict, while high conflict also produced elevated alpha power in parieto-occipital regions, suggesting roles in early threat detection and sensory integration. These results suggest that avoid-avoid goal conflict reliably activates BIS-related neural systems and that the updated JORT provides a valid method for studying anxiety-related biomarkers. Using a motor-calibrated framework, this is the first study to integrate EEG with an avoid-avoid conflict paradigm. Future work should examine pharmacological modulation and include clinical samples to further validate the specificity of the observed neural patterns for anxiety-related conflict processing.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Request error: HTTPConnectionPool(host='localhost', port=7860): Max retries exceeded with url: /api/v1/run/primaryscreen-1-1-1 (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x00000219B78DA210&gt;: Failed to establish a new connection: [WinError 10061] No connection could be made because the target machine actively refused it'))</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>40426153</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>40683805</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BACKGROUND: The Conox monitor analyses the frontal EEG to generate two indices of anaesthetic effects: qCON, intended to indicate the level of consciousness, and qNOX, designed to reflect responsiveness to noxious stimuli. Two similar quantitative EEG devices, BIS and Entropy, have been shown to require muscle activity (EMG) to generate accurate index values in awake individuals. Without EMG, these devices produce misleadingly low values and incorrectly suggest sedation or anaesthesia despite the cortical EEG showing the subjects are awake. As EMG affects frequency bands used by Conox, it too could be incorporating muscle activity to generate high values in awake individuals.
+METHODS: We replayed EEGs recorded during awake paralysis to the Conox monitor via an electronic playback system to test whether it requires EMG to generate accurate values in awake subjects.
+RESULTS: Both qCON and qNOX decreased after neuromuscular block to values consistent with sedation or anaesthesia, despite subjects being fully awake. qCON decreased below 60 in 15 of 19 trials, and qNOX decreased below 60 in 11 of 19 trials. Overall, 42% of qCON values during paralysis were &lt;60, the level supposedly indicating anaesthesia.
+CONCLUSIONS: Conox requires muscle activity to generate accurate values in awake individuals. Consequently, it might be an unreliable indicator of awareness in patients who have received neuromuscular blocking drugs. Studies conducted without neuromuscular block can provide misleading guidance when applied to Conox use in paralysed patients. Clinicians should approach manufacturer guidelines with caution and not rely solely on index values to guide dosing of anaesthetic drugs.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Request error: HTTPConnectionPool(host='localhost', port=7860): Max retries exceeded with url: /api/v1/run/primaryscreen-1-1-1 (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x00000219B78CAB10&gt;: Failed to establish a new connection: [WinError 10061] No connection could be made because the target machine actively refused it'))</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>40358426</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>40675419</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conflict monitoring was investigated as a neuro-cognitive process of deception. To investigate individual differences of conflict monitoring during a social deception task, we employed the fronto-central N2 component of the electroencephalogram. N = 96 participants (male = 48) reported the trustworthiness or untrustworthiness of previously learned faces in two experimental conditions (affective vs. neutral) either truthfully or deceptively and completed the German BIS/BAS scales and the Conflict Monitoring Questionnaire-44. For an assessment of the robustness of the results, the N2 was quantified using three different quantification methods. Peak-to-peak N2 amplitudes were more negative following untrustworthy vs. trustworthy stimuli regardless of the truthfulness, indicating their sensitivity to negative affect. None of the investigated traits had a significant effect on the individual extent of conflict monitoring. The peak-to-peak amplitude appeared to be most suitable for quantifying the N2 in the examination of conflict monitoring during deception. Results indicated shorter response times and higher correct rates for truthful responses. Since the significance of the Picture type main effect varies with the N2 quantification method, assessing reliability data and examining paradigm parameters could clarify the impact of different N2 quantification approaches on achieving excellent reliability.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Request error: HTTPConnectionPool(host='localhost', port=7860): Max retries exceeded with url: /api/v1/run/primaryscreen-1-1-1 (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x00000219B8E18050&gt;: Failed to establish a new connection: [WinError 10061] No connection could be made because the target machine actively refused it'))</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>40713379</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>OBJECTIVE: To evaluate the impact of electroencephalography (EEG)-guided anesthesia versus non-EEG-guided anesthesia on postoperative delirium and adverse outcomes in patients undergoing cardiothoracic surgeries.
+DESIGN: A systematic review and meta-analysis were performed using PubMed, Embase, and Cochrane Library.
+SETTING: All randomized clinical trials (RCTs).
+PARTICIPANTS: Eight RCTs with 2,666 patients: 1,304 received EEG-guided anesthesia and 1,362 received usual care.
+INTERVENTIONS: Anesthesia guided by EEG in cardiothoracic surgery.
+MEASUREMENTS AND MAIN RESULTS: Mean differences (MDs) were used to pool continuous outcomes while risk ratios (RRs) were used for binary outcomes, using 95% confidence intervals (CIs). A random-effects model was used to examine the treatment. Statistical analysis was performed using R Studio. EEG-guided anesthesia was associated with a trend toward reduced ventilatory support duration (MD: -25.08, 95% CI: -50.12 to -0.04, p = 0.05, I² = 0%). No significant differences were found in postoperative delirium (RR: 0.93, 95% CI: 0.79-1.09, p = 0.35, I² = 42.6%), hospital length of stay (MD: -0.22, 95% CI: -0.53 to 0.09, p = 0.17, I² = 4.7%), intensive care unit length of stay (MD: -0.24, 95% CI -0.59 to 0.12, p = 0.19, I² = 71.7%), mortality (RR: 0.82, 95% CI: 0.54-1.25, p = 0.36, I² = 42%), or intraoperative blood transfusion (RR: 0.96, 95% CI: 0.74-1.25, p = 0.79, I² = 0%).
+CONCLUSIONS: The findings demonstrated that EEG-guided anesthesia was associated with a shorter duration of respiratory support. However, this study did not identify any significant comparative advantage over standard practices for the other outcomes analyzed.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Request error: HTTPConnectionPool(host='localhost', port=7860): Max retries exceeded with url: /api/v1/run/primaryscreen-1-1-1 (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0x00000219B78DA5D0&gt;: Failed to establish a new connection: [WinError 10061] No connection could be made because the target machine actively refused it'))</t>
+        </is>
       </c>
     </row>
   </sheetData>
